--- a/DOM_Banner/output/dept0713/Saad Sammani_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Saad Sammani_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Biomedical Sciences, Cedars-Sinai Medical Center, Los Angeles, CA, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Department of Biomedical Sciences, Cedars-Sinai Medical Center, Los Angeles, CA, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Department of Biomedical Sciences, Cedars-Sinai Medical Center, Los Angeles, CA, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; University of Pavia, Pavia, Italy; Department of Biomedical Sciences, Cedars-Sinai Medical Center, Los Angeles, CA, USA; Department of Medicine, Division of Rheumatology, Cedars-Sinai Medical Center, Los Angeles, CA, USA; David Geffen School of Medicine at University of California Los Angeles (UCLA), Los Angeles, CA, USA; Department of Medicine, Division of Rheumatology, Cedars-Sinai Medical Center, Los Angeles, CA, USA; David Geffen School of Medicine at University of California Los Angeles (UCLA), Los Angeles, CA, USA; Department of Medicine, Division of Rheumatology, Cedars-Sinai Medical Center, Los Angeles, CA, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Department of Biomedical Sciences, Cedars-Sinai Medical Center, Los Angeles, CA, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313574152</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>eNAMPT/TLR4 inflammatory cascade activation is a key contributor to SLE Lung vasculitis and alveolar hemorrhage</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Translational Autoimmunity</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jtauto.2022.100181</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36619655</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jtauto.2022.100181</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine, University of Arizona Health Sciences, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321369220</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Targeting &lt;i&gt;SELPLG/&lt;/i&gt;P‐selectin glycoprotein ligand 1 in preclinical ARDS: Genetic and epigenetic regulation of the &lt;i&gt;SELPLG&lt;/i&gt; promoter</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Pulmonary circulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/pul2.12206</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36873461</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/pul2.12206</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Departments of Pediatrics, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Departments of Pediatrics, University of Arizona Health Sciences, Tucson, AZ, United States; Departments of Pediatrics, University of Arizona Health Sciences, Tucson, AZ, United States; Departments of Pediatrics, University of Arizona Health Sciences, Tucson, AZ, United States; Departments of Pediatrics, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Pediatrics, UT Health San Antonio, Long School of Medicine, San Antonio, TX, United States; Department of Obstetrics and Gynecology, University of Arizona Health Sciences, Tucson, AZ, United States; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381429253</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The eNAMPT/TLR4 inflammatory cascade drives the severity of intra-amniotic inflammation in pregnancy and predicts infant outcomes</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Frontiers in Physiology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1129413</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37415908</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fphys.2023.1129413</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Emergency Medicine, University of Arizona College of Medicine, Tucson, USA; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA; Department of Radiology, University of Arizona College of Medicine, Tucson, USA; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona College of Medicine, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380739042</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>The impact of intravenous dodecafluoropentane on a murine model of acute lung injury</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Intensive Care Medicine Experimental</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Springer Nature</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s40635-023-00518-2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37322298</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s40635-023-00518-2</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Saad Sammani_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Saad Sammani_2023.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
